--- a/divisao_regional_fortaleza.xlsx
+++ b/divisao_regional_fortaleza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d993632747692802/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d993632747692802/Documentos/LPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{0266C52D-81B9-4DB5-A5C8-12AFA136529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47071768-5CED-4299-B4D7-8C958C7E241B}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{0266C52D-81B9-4DB5-A5C8-12AFA136529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71D777A-4C33-4969-A706-FFC03AC1CD2D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E728D8B-EB79-4ACD-AD7C-176171A45185}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="186">
   <si>
     <t>Bairro</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Jacarecanga</t>
   </si>
   <si>
-    <t>Jardim Guananbara</t>
-  </si>
-  <si>
     <t>Jardim Iracema</t>
   </si>
   <si>
@@ -163,26 +160,6 @@
     <t>Farol</t>
   </si>
   <si>
-    <t>Favela do Trilho_x000D_
-Galiléia_x000D_
-Guararapes_x000D_
-Joaquim Távora_x000D_
-Luciano Cavalcante_x000D_
-Meireles_x000D_
-Mucuripe_x000D_
-Papicu_x000D_
-Piedade_x000D_
-Pio XII_x000D_
-Praia de Iracema_x000D_
-Praia do Futuro_x000D_
-Tauape_x000D_
-Salinas_x000D_
-Serviluz_x000D_
-Varjota_x000D_
-Verdes Mares_x000D_
-Vicente Pizon</t>
-  </si>
-  <si>
     <t>Galiléia</t>
   </si>
   <si>
@@ -216,9 +193,6 @@
     <t>Praia do Futuro</t>
   </si>
   <si>
-    <t>Tauape</t>
-  </si>
-  <si>
     <t>Salinas</t>
   </si>
   <si>
@@ -258,18 +232,12 @@
     <t>João XXIII</t>
   </si>
   <si>
-    <t>Jockei Clube</t>
-  </si>
-  <si>
     <t>Padre Andrade</t>
   </si>
   <si>
     <t>Parque Araxá</t>
   </si>
   <si>
-    <t>Parquêlandia</t>
-  </si>
-  <si>
     <t>Pici</t>
   </si>
   <si>
@@ -369,9 +337,6 @@
     <t>Bom Jardim</t>
   </si>
   <si>
-    <t>Jardim  Cearense</t>
-  </si>
-  <si>
     <t>Manoel Sátiro</t>
   </si>
   <si>
@@ -402,9 +367,6 @@
     <t>Parque Veras</t>
   </si>
   <si>
-    <t>Presidente Vargas</t>
-  </si>
-  <si>
     <t>Siqueira</t>
   </si>
   <si>
@@ -471,9 +433,6 @@
     <t>Conjunto São Cristovão</t>
   </si>
   <si>
-    <t>Conjunto Tancredo Neves</t>
-  </si>
-  <si>
     <t>Coaçu</t>
   </si>
   <si>
@@ -586,6 +545,54 @@
   </si>
   <si>
     <t>Sapiranga</t>
+  </si>
+  <si>
+    <t>Regional I</t>
+  </si>
+  <si>
+    <t>Regional II</t>
+  </si>
+  <si>
+    <t>Favela do Trilho</t>
+  </si>
+  <si>
+    <t>Regional III</t>
+  </si>
+  <si>
+    <t>Regional IV</t>
+  </si>
+  <si>
+    <t>Regional V</t>
+  </si>
+  <si>
+    <t>Regional VI</t>
+  </si>
+  <si>
+    <t>Jardim Guanabara</t>
+  </si>
+  <si>
+    <t>São João do Tauape</t>
+  </si>
+  <si>
+    <t>Jóquei Clube</t>
+  </si>
+  <si>
+    <t>Parquelândia</t>
+  </si>
+  <si>
+    <t>Jardim Cearense</t>
+  </si>
+  <si>
+    <t>Parque Presidente Vargas</t>
+  </si>
+  <si>
+    <t>Planalto Ayrton Senna</t>
+  </si>
+  <si>
+    <t>Presidente Tancredo Neves</t>
+  </si>
+  <si>
+    <t>José de Alencar</t>
   </si>
 </sst>
 </file>
@@ -949,15 +956,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1D4A0-7BDA-4355-96EB-93250FA2464B}">
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -972,1417 +980,1433 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
+      <c r="B48" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
+        <v>91</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>5</v>
+        <v>92</v>
+      </c>
+      <c r="B98" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
+        <v>94</v>
+      </c>
+      <c r="B100" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104">
-        <v>5</v>
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>5</v>
+        <v>98</v>
+      </c>
+      <c r="B105" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
+        <v>102</v>
+      </c>
+      <c r="B108" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="B109" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110">
-        <v>5</v>
+        <v>104</v>
+      </c>
+      <c r="B110" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113">
-        <v>5</v>
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114">
-        <v>5</v>
+        <v>108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115">
-        <v>5</v>
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116">
-        <v>5</v>
+        <v>182</v>
+      </c>
+      <c r="B116" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="B117" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="B118" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>6</v>
+        <v>183</v>
+      </c>
+      <c r="B119" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>6</v>
+        <v>112</v>
+      </c>
+      <c r="B121" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="B122" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="B123" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="B124" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>6</v>
+        <v>116</v>
+      </c>
+      <c r="B125" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="B126" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>6</v>
+        <v>119</v>
+      </c>
+      <c r="B128" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="B129" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>6</v>
+        <v>121</v>
+      </c>
+      <c r="B130" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>6</v>
+        <v>122</v>
+      </c>
+      <c r="B131" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="B132" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="B133" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>6</v>
+        <v>125</v>
+      </c>
+      <c r="B134" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="B135" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>6</v>
+        <v>127</v>
+      </c>
+      <c r="B136" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <v>6</v>
+        <v>128</v>
+      </c>
+      <c r="B137" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <v>6</v>
+        <v>129</v>
+      </c>
+      <c r="B138" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>6</v>
+        <v>130</v>
+      </c>
+      <c r="B139" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="B140" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>6</v>
+        <v>184</v>
+      </c>
+      <c r="B141" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>6</v>
+        <v>132</v>
+      </c>
+      <c r="B142" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="B143" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="B144" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <v>6</v>
+        <v>135</v>
+      </c>
+      <c r="B145" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="B146" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="B147" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <v>6</v>
+        <v>138</v>
+      </c>
+      <c r="B148" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="B149" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150">
-        <v>6</v>
+        <v>140</v>
+      </c>
+      <c r="B150" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="B151" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152">
-        <v>6</v>
+        <v>142</v>
+      </c>
+      <c r="B152" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153">
-        <v>6</v>
+        <v>143</v>
+      </c>
+      <c r="B153" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-      <c r="B154">
-        <v>6</v>
+        <v>144</v>
+      </c>
+      <c r="B154" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-      <c r="B155">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="B155" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156">
-        <v>6</v>
+        <v>146</v>
+      </c>
+      <c r="B156" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="B157" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158">
-        <v>6</v>
+        <v>148</v>
+      </c>
+      <c r="B158" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159">
-        <v>6</v>
+        <v>149</v>
+      </c>
+      <c r="B159" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="B160" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B161">
-        <v>6</v>
+        <v>151</v>
+      </c>
+      <c r="B161" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-      <c r="B162">
-        <v>6</v>
+        <v>152</v>
+      </c>
+      <c r="B162" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163">
-        <v>6</v>
+        <v>153</v>
+      </c>
+      <c r="B163" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-      <c r="B164">
-        <v>6</v>
+        <v>154</v>
+      </c>
+      <c r="B164" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-      <c r="B165">
-        <v>6</v>
+        <v>155</v>
+      </c>
+      <c r="B165" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-      <c r="B166">
-        <v>6</v>
+        <v>156</v>
+      </c>
+      <c r="B166" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-      <c r="B167">
-        <v>6</v>
+        <v>157</v>
+      </c>
+      <c r="B167" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-      <c r="B168">
-        <v>6</v>
+        <v>158</v>
+      </c>
+      <c r="B168" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169">
-        <v>6</v>
+        <v>159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-      <c r="B170">
-        <v>6</v>
+        <v>160</v>
+      </c>
+      <c r="B170" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171">
-        <v>6</v>
+        <v>161</v>
+      </c>
+      <c r="B171" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-      <c r="B172">
-        <v>6</v>
+        <v>162</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173">
-        <v>6</v>
+        <v>163</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174">
-        <v>6</v>
+        <v>164</v>
+      </c>
+      <c r="B174" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-      <c r="B175">
-        <v>6</v>
+        <v>165</v>
+      </c>
+      <c r="B175" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-      <c r="B176">
-        <v>6</v>
+        <v>166</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177">
-        <v>6</v>
+        <v>167</v>
+      </c>
+      <c r="B177" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-      <c r="B178">
-        <v>6</v>
+        <v>168</v>
+      </c>
+      <c r="B178" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
